--- a/Excel/AdminExcel/GlobalTaxController.xlsx
+++ b/Excel/AdminExcel/GlobalTaxController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outsource.minura\API_Testing\api-automation\Excel\AdminExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823299F7-9EC3-4FA9-B18F-336E4754A612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EFDA6F-BF6D-4022-94E0-22461E7A06AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateGlobalTaxController" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Test case No</t>
   </si>
@@ -213,6 +213,52 @@
   "taxAmount": 10,
   "taxRate": 0,
   "taxTypeId": 10
+}</t>
+  </si>
+  <si>
+    <t>{
+  "countryId": 1,
+  "endDate": "2025- -14",
+  "globalTaxId": 62,
+  "isSpecial": true,
+  "stDate": "2025-09-14",
+  "taxAmount": 10,
+  "taxRate": 0,
+  "taxTypeId": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "countryId": 1,
+  "endDate": "2025-09 -14",
+  "globalTaxId": 62,
+  "isSpecial": true,
+  "stDate": "2025--14",
+  "taxAmount": 10,
+  "taxRate": 0,
+  "taxTypeId": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "countryId": 1,
+  "endDate": "2025- -14",
+ "isSpecial": true,
+  "stDate": "2025-09-14",
+  "taxAmount": 100,
+  "taxRate": 0,
+  "taxTypeId": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "countryId": 1,
+  "endDate": "2025-09-14",
+ "isSpecial": true,
+  "stDate": "2025--14",
+  "taxAmount": 100,
+  "taxRate": 0,
+  "taxTypeId": 1
 }</t>
   </si>
 </sst>
@@ -249,13 +295,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +700,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>400</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>400</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -658,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25413E94-ACB8-4749-A169-C41472CF6217}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +872,34 @@
       </c>
       <c r="E8" s="2"/>
     </row>
+    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>400</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>400</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
